--- a/output/Товары.xlsx
+++ b/output/Товары.xlsx
@@ -448,27 +448,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balls for pneumatic weapons stalker (Cal. 4,5mm | 1500 PCs | copper-plated)  BB for airgun, pneumatic pistol (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Stalker Satt Spring Gun (analog TT), K. 6mm, met body, Shop 11 ball pnevmat tt airsoft (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balls for pneumatic copper stalker 4,5mm 500 PCs (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Nimar fly (luminous green | fiber diameter 3,0mm | thread 3,0mm) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nimar fly (luminous green | fiber diameter 3,0mm | thread 3,0mm) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pistol stalker saps Spring (analog PM) + imit. PBS, k.6mm, met. body, shop 12 ball, up to 80 M/M pnevmat PM airguns makarov (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -478,17 +478,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nimar fly (luminous red | fiber diameter 3,0mm | thread 3,0mm) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Rifle Hatsan Alpha (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gas Spring for Hatsan 33/35/striker alpha (140 ATM). (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gas mask (in a bag, USSR) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -508,17 +508,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spring gun stalker SATT (caliber 6mm, metal case, on the spring) pneumatic pistol airsoft strikeball (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Knife training mutual sharp solid (copy of the battle knife Applegate-Fairburn Kombat II) material-hard plastic (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beret vdv (size 57) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Balls for Slingshot stalker galvanized 10mm, 50 PCs.  </t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balls for Slingshot "shot" (Cal. 10mm | 50 PCs | steel)  </t>
+          <t xml:space="preserve">Kokarda VMF (RF) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -548,17 +548,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Shock; Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cylinder CO2 "quarta", 12g, 10 pieces (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hatsan trunk seal for fractures (original) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cuff for rifle Baikal mr-512/mr-60/mr-61/mr-53 (reinforced). (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -568,71 +568,71 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hatsan trunk seal for fractures/Stoeger X50 (Vado) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cuff for Hatsan 55-60-70-80-90-100-105, striker 1000/EDGE, Alpha, mod 25 (Vado) closed (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gun pneumatic stalker s1911t (analog "Colt 1911") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pistol pneumatic. Stalker sa92m Spring (analog Beretta 92 mini), K. 6mm, met. Case, Shop 8 ball, up to 80 m/s pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol Stalker SA99M Spring (similar to the Walther P99), 6mm, met. the case, 8 Ball pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gas Spring for Hatsan striker 1000/edge rifle (150 atm) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cylinder CO2 "Crosman", 12g, 10 pieces (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gun pneumatic stalker s1911t (analog "Colt 1911") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stalker Satt Spring Gun (analog TT), K. 6mm, met body, Shop 11 ball pnevmat tt airsoft (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Ремонтный комплект Borner ПМ-49, Umarex PM (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gas Spring for Hatsan edge/1000x/1000s "Magnum" (150 atm) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Spring gun stalker sa25m (caliber 6mm, metal case, on the spring) pneumatic pistol airsoft strikeball (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stalker balls for Slingshot (Galvanized) (Color: 6mm/250 PCs; Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Bullets Gamo red fire (Cal. 4,5mm/0,51G/125 PCs) Airgun Pellets .177 (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuff for Hatsan 55-60-70-80-90-100-105, striker 1000/EDGE, Alpha, mod 25 (Vado), open (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Balls for pneumatic copper stalker 4,5mm 500 PCs (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,27 +658,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol stalker saps Spring (analog PM) + imit. PBS, k.6mm, met. body, shop 12 ball, up to 80 M/M pnevmat PM airguns makarov (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cuff for Hatsan 55-60-70-80-90-100-105, striker 1000/EDGE, Alpha, mod 25 (Vado), open (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spring gun stalker sa25m (caliber 6mm, metal case, on the spring) pneumatic pistol airsoft strikeball (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pistol Stalker SA38 Spring (similar to the Walther P38), 6mm, met. The Body Shop 13 ball  pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuff for rifle mr-512, mr-60, mr-61 and gun mr-53. suitable for use in standard, not reinforced screw or screw. (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Hot pepper; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -688,17 +688,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Matches hunting Image (20 PCs) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pistol Stalker SA99M Spring (similar to the Walther P99), 6mm, met. the case, 8 Ball pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balls for Slingshot stalker galvanized 10mm, 50 PCs.  </t>
+          <t xml:space="preserve">Gas Spring for Hatsan 33/35/striker alpha (140 ATM). (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -708,27 +708,27 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shop (clip) for pneumatic pistols stalker s1911 and s84. (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Chevron "Bob Marley squad" (olive, black edge) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knife training mutual sharp solid (copy of the battle knife Applegate-Fairburn Kombat II) material-hard plastic (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Spring gun stalker sa92m (caliber 6mm, metal case, on the spring) pneumatic airsoft strikeball pistol (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shotgun cleaning kit 4,5mm caliber (for pneumatic weapons, metal. shompaul + 3 Ersha) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Matches hunting Image (20 PCs) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -738,37 +738,37 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gun pneumatic stalker s92pl (analog "Beretta 92") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Fighter аэрозольно inkjet; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balls for airsoft plastic stalker 6,0mm/0,12G/250 PCs (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Chevron "fishing troops" (black) (Color: Green; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cylinder CO2 "quarta", 12g, 10 pieces (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Hatsan trunk seal for fractures (original) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Fighter аэрозольно inkjet; Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Chevron "know our" (Color: Army Green; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Hot pepper; Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: шпага 65; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -788,37 +788,37 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rifle Hatsan Alpha pneumatic break-barrel 4.5mm 205 m/s (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Stalker balls for Slingshot (Galvanized) (Color: 6mm/250 PCs; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol stalker saps Spring (analog PM) + imit. PBS, k.6mm, met. body, shop 12 ball, up to 80 M/M pnevmat straikboll airsoft пневматический PM Makarov (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Nimar fly (luminous red | fiber diameter 3,0mm | thread 3,0mm) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol pneumatic. Stalker sa92m Spring (analog Beretta 92 mini), K. 6mm, met. Case, Shop 8 ball, up to 80 m/s pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Hatsan trunk seal for fractures/Stoeger X50 (Vado) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol stalker sa5.1 Spring (analog hi-CAPA 5.1), kah6 mm, met. Case, shop 16 Ball, up to 80 m/s pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cuff for rifle mr-512, mr-60, mr-61 and gun mr-53. suitable for use in standard, not reinforced screw or screw. (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chevron "know our" (Color: Army Green; Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Balls for Slingshot "shot" (Cal. 10mm | 50 PCs | steel)  </t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -838,41 +838,41 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gas mask (in a bag, USSR) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cylinder CO2 "Crosman", 12g, 10 pieces (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuff for Hatsan 55-60-70-80-90-100-105, striker 1000/EDGE, Alpha, mod 25 (Vado) closed (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Beret vdv (size 57) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gun pneumatic stalker s1911t (analog "Colt 1911") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cuff mr-512 from "parruhi" (PT), closed (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Twisted spring for Hatsan striker edge/striker 1000 (reinforced) + reinforced cuff (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">"Borner" balls for 4,5mm pneumatic, 500 pieces (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spring gun stalker sa92m (caliber 6mm, metal case, on the spring) pneumatic airsoft strikeball pistol (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gas Spring for Hatsan edge/1000x/1000s "Magnum" (150 atm) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -898,27 +898,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gas Spring for Hatsan striker 1000/edge rifle (150 atm) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Balls for airsoft plastic stalker 6,0mm/0,12G/250 PCs (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bullets H &amp; N Baracuda Hunter (Cal. 6,35mm/1,78G/150 PCs) Airgun Pellets (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Overstart for mr-512 Ø 4,8mm [Vado] (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kokarda VMF (RF) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Rifle Hatsan Alpha pneumatic break-barrel 4.5mm 205 m/s (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gun pneumatic stalker scm9m (analog Beretta M9), k.6mm, 12g CO2, Meth. body, shop 20 ball, to 105mm (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Twisted spring for Hatsan striker edge/striker 1000 (reinforced) + reinforced cuff (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -938,27 +938,27 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol Stalker SA1911 Spring (analog Colt1911), 6mm, met. The Body Shop 13 ball  pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Shock; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Overstart for mr-512 Ø 4,8mm [Vado] (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gun pneumatic stalker scm9m (analog Beretta M9), k.6mm, 12g CO2, Meth. body, shop 20 ball, to 105mm (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chevron "Bob Marley squad" (olive, black edge) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gun pneumatic stalker s1911t (analog "Colt 1911") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -968,37 +968,37 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">"Borner" balls for 4,5mm pneumatic, 500 pieces (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pistol stalker sa5.1 Spring (analog hi-CAPA 5.1), kah6 mm, met. Case, shop 16 Ball, up to 80 m/s pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol Stalker SA38 Spring (similar to the Walther P38), 6mm, met. The Body Shop 13 ball  pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Balls for pneumatic weapons stalker (Cal. 4,5mm | 1500 PCs | copper-plated)  BB for airgun, pneumatic pistol (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bullets Gamo red fire (Cal. 4,5mm/0,51G/125 PCs) Airgun Pellets .177 (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Spring gun stalker SATT (caliber 6mm, metal case, on the spring) pneumatic pistol airsoft strikeball (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuff for rifle Baikal mr-512/mr-60/mr-61/mr-53 (reinforced). (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Shotgun cleaning kit 4,5mm caliber (for pneumatic weapons, metal. shompaul + 3 Ersha) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rifle Hatsan Alpha (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Bullets H &amp; N Baracuda Hunter (Cal. 6,35mm/1,78G/150 PCs) Airgun Pellets (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chevron "fishing troops" (black) (Color: Green; Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pistol stalker saps Spring (analog PM) + imit. PBS, k.6mm, met. body, shop 12 ball, up to 80 M/M pnevmat straikboll airsoft пневматический PM Makarov (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ремонтный комплект Borner ПМ-49, Umarex PM (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Shop (clip) for pneumatic pistols stalker s1911 and s84. (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1038,17 +1038,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuff mr-512 from "parruhi" (PT), closed (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gun pneumatic stalker s92pl (analog "Beretta 92") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: шпага 65; Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pistol Stalker SA1911 Spring (analog Colt1911), 6mm, met. The Body Shop 13 ball  pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B62" t="n">

--- a/output/Товары.xlsx
+++ b/output/Товары.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,640 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col width="130" customWidth="1" min="1" max="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Товары</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Количество</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuff for Hatsan 55-60-70-80-90-100-105, striker 1000/EDGE, Alpha, mod 25 (Vado), open (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bullets H &amp; N Baracuda Hunter (Cal. 6,35mm/1,78G/150 PCs) Airgun Pellets (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Spring Gamo 440/890 CFX/Viper, Kral, Crossman Phantom/Quest, Stoeger X 10/20, Remington summit 130 ATM (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Beret vdv (size 57) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol Stalker SA1911 Spring (analog Colt1911), 6mm, met. The Body Shop 13 ball  pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balls for pneumatic weapons stalker (Cal. 4,5mm | 1500 PCs | copper-plated)  BB for airgun, pneumatic pistol (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatsan trunk seal for fractures/Stoeger X50 (Vado) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balls for Slingshot stalker galvanized 10mm, 50 PCs.  </t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Overstart for mr-512 Ø 4,8mm [Vado] (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol stalker saps Spring (analog PM) + imit. PBS, k.6mm, met. body, shop 12 ball, up to 80 M/M pnevmat PM airguns makarov (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shop (clip) for pneumatic pistols stalker s1911 and s84. (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gun stalker s1911g (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balls for pneumatic copper stalker 4,5mm 500 PCs (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol stalker sa5.1 Spring (analog hi-CAPA 5.1), kah6 mm, met. Case, shop 16 Ball, up to 80 m/s pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol pneumatic. Stalker sa92m Spring (analog Beretta 92 mini), K. 6mm, met. Case, Shop 8 ball, up to 80 m/s pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spring gun stalker sa92m (caliber 6mm, metal case, on the spring) pneumatic airsoft strikeball pistol (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spring gun stalker sa25m (caliber 6mm, metal case, on the spring) pneumatic pistol airsoft strikeball (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stalker Satt Spring Gun (analog TT), K. 6mm, met body, Shop 11 ball pnevmat tt airsoft (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rifle Hatsan Alpha (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Twisted spring for Hatsan striker edge/striker 1000 (reinforced) + reinforced cuff (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: шпага 65; Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuff for rifle mr-512, mr-60, mr-61 and gun mr-53. suitable for use in standard, not reinforced screw or screw. (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cylinder CO2 "quarta", 12g, 10 pieces (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chevron "know our" (Color: Army Green; Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nimar fly (luminous red | fiber diameter 3,0mm | thread 3,0mm) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hatsan trunk seal for fractures (original) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuff mr-512 from "parruhi" (PT), closed (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Spring for Hatsan edge/1000x/1000s "Magnum" (150 atm) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol stalker saps Spring (analog PM) + imit. PBS, k.6mm, met. body, shop 12 ball, up to 80 M/M pnevmat straikboll airsoft пневматический PM Makarov (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cylinder CO2 "Crosman", 12g, 10 pieces (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ремонтный комплект Borner ПМ-49, Umarex PM (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Spring for Hatsan 33/35/striker alpha (140 ATM). (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gun pneumatic stalker scm9m (analog Beretta M9), k.6mm, 12g CO2, Meth. body, shop 20 ball, to 105mm (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nimar fly (luminous green | fiber diameter 3,0mm | thread 3,0mm) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Spring for Crosman NP rifle (140 ATM) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rifle Hatsan Alpha pneumatic break-barrel 4.5mm 205 m/s (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balls for Slingshot "shot" (Cal. 10mm | 50 PCs | steel)  </t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Stalker balls for Slingshot (Galvanized) (Color: 6mm/250 PCs; Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chevron "fishing troops" (black) (Color: Green; Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Balls for airsoft plastic stalker 6,0mm/0,12G/250 PCs (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">"Borner" balls for 4,5mm pneumatic, 500 pieces (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knife training mutual sharp solid (copy of the battle knife Applegate-Fairburn Kombat II) material-hard plastic (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shotgun cleaning kit 4,5mm caliber (for pneumatic weapons, metal. shompaul + 3 Ersha) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chevron "Bob Marley squad" (olive, black edge) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gun pneumatic stalker s92pl (analog "Beretta 92") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Shock; Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuff for Hatsan 55-60-70-80-90-100-105, striker 1000/EDGE, Alpha, mod 25 (Vado) closed (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Hot pepper; Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kokarda VMF (RF) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas Spring for Hatsan striker 1000/edge rifle (150 atm) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Fighter аэрозольно inkjet; Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matches hunting Image (20 PCs) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gas mask (in a bag, USSR) (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gun pneumatic stalker s1911t (analog "Colt 1911") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gun pneumatic stalker s92pl (analog "Beretta 92") K.4, 5mm, plastic, 120 m/s, black, + 250 ball.pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Spring gun stalker SATT (caliber 6mm, metal case, on the spring) pneumatic pistol airsoft strikeball (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol Stalker SA99M Spring (similar to the Walther P99), 6mm, met. the case, 8 Ball pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cuff for rifle Baikal mr-512/mr-60/mr-61/mr-53 (reinforced). (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gun pneumatic stalker s1911t (analog "Colt 1911") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bullets Gamo red fire (Cal. 4,5mm/0,51G/125 PCs) Airgun Pellets .177 (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pistol Stalker SA38 Spring (similar to the Walther P38), 6mm, met. The Body Shop 13 ball  pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/output/Товары.xlsx
+++ b/output/Товары.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuff for Hatsan 55-60-70-80-90-100-105, striker 1000/EDGE, Alpha, mod 25 (Vado), open (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Balls for pneumatic weapons stalker (Cal. 4,5mm | 1500 PCs | copper-plated)  BB for airgun, pneumatic pistol (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bullets H &amp; N Baracuda Hunter (Cal. 6,35mm/1,78G/150 PCs) Airgun Pellets (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Bullets leves hobby (Cal. 6,35mm/4,3G/250 PCs) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -471,7 +471,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gas Spring Gamo 440/890 CFX/Viper, Kral, Crossman Phantom/Quest, Stoeger X 10/20, Remington summit 130 ATM (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Case Negrini "2014x" (for a gun universal 23,5*15,3*5) (Color: Black; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -481,7 +481,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Beret vdv (size 57) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Chevron "Che Guevara Che" (Color: Army Green; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -491,37 +491,37 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol Stalker SA1911 Spring (analog Colt1911), 6mm, met. The Body Shop 13 ball  pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Chevron "Nowhere to Run" (Color: Blue; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balls for pneumatic weapons stalker (Cal. 4,5mm | 1500 PCs | copper-plated)  BB for airgun, pneumatic pistol (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Chevron "Princess Dragons" (beige) (Color: green; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hatsan trunk seal for fractures/Stoeger X50 (Vado) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cuff for Crosman 1377, Crosman 2100 (Vado) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balls for Slingshot stalker galvanized 10mm, 50 PCs.  </t>
+          <t xml:space="preserve">Cuff for Hatsan 55-60-70-80-90-100-105, striker 1000/EDGE, Alpha, mod 25 (Vado) closed (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -531,17 +531,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Overstart for mr-512 Ø 4,8mm [Vado] (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cuff for rifle Baikal mr-512/mr-60/mr-61/mr-53 (reinforced).  </t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol stalker saps Spring (analog PM) + imit. PBS, k.6mm, met. body, shop 12 ball, up to 80 M/M pnevmat PM airguns makarov (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cuff for rifle Baikal mr-512/mr-60/mr-61/mr-53 (standard).  </t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -551,17 +551,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Shop (clip) for pneumatic pistols stalker s1911 and s84. (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Cylinders CO2 "quart", 12g, 10 PCs. (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gun stalker s1911g (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gas Spring Gamo 440/890 CFX/Viper, Kral, Crossman Phantom/Quest, Stoeger X 10/20, Remington summit 130 ATM (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -571,7 +571,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Balls for pneumatic copper stalker 4,5mm 500 PCs (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gas Spring for Hatsan 33/35/striker alpha (140 ATM). (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -581,7 +581,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol stalker sa5.1 Spring (analog hi-CAPA 5.1), kah6 mm, met. Case, shop 16 Ball, up to 80 m/s pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gas Spring for izh-38 (100 atm). (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -591,17 +591,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol pneumatic. Stalker sa92m Spring (analog Beretta 92 mini), K. 6mm, met. Case, Shop 8 ball, up to 80 m/s pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gas mask (in a bag, USSR) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spring gun stalker sa92m (caliber 6mm, metal case, on the spring) pneumatic airsoft strikeball pistol (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gun pneumatic stalker s92pl (analog "Beretta 92") K.4, 5mm, plastic, 120 m/s, black, + 250 ball.pnevmat straikboll airsoft пневматический  </t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -611,37 +611,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spring gun stalker sa25m (caliber 6mm, metal case, on the spring) pneumatic pistol airsoft strikeball (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Gun pneumatic stalker scm9m (analog Beretta M9), k.6mm, 12g CO2, Meth. body, shop 20 ball, to 105mm pnevmat straikboll airsoft пневматический  </t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stalker Satt Spring Gun (analog TT), K. 6mm, met body, Shop 11 ball pnevmat tt airsoft (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Handcuffs "brp-3" (funnel | one key) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rifle Hatsan Alpha (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Hatsan striker Alpha pneumatic rifle  </t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Twisted spring for Hatsan striker edge/striker 1000 (reinforced) + reinforced cuff (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Keychain on the chain 7,62 х54 bimetal (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -651,7 +651,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: шпага 65; Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Overstart for mr-512 Ø 3mm [Vado] (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -661,7 +661,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuff for rifle mr-512, mr-60, mr-61 and gun mr-53. suitable for use in standard, not reinforced screw or screw. (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Overstart for mr-512 Ø 4,8mm [Vado] (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -671,17 +671,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cylinder CO2 "quarta", 12g, 10 pieces (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Black seventy-five ml; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chevron "know our" (Color: Army Green; Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pistol stalker saps Spring (analog PM) + imit. PBS, k.6mm, met. body, shop 12 ball, up to 80 M/M pnevmat straikboll airsoft пневматический PM Makarov  </t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -691,17 +691,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nimar fly (luminous red | fiber diameter 3,0mm | thread 3,0mm) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Pneumatic gun stalker s92me (analog "Beretta 92") K.4, 5mm, metal, 120 m/s pnevmat straikboll airsoft пневматический  </t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hatsan trunk seal for fractures (original) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Repair Kit Borner pm-49, Umarex PM (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -711,17 +711,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cuff mr-512 from "parruhi" (PT), closed (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Scope leapers true Hunter Classic 3-9x32, 25.4mm, mildot thread, sub r/G, Weaver or LH rings (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gas Spring for Hatsan edge/1000x/1000s "Magnum" (150 atm) (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Signal Hunter Tula (15 PCs) (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -731,330 +731,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pistol stalker saps Spring (analog PM) + imit. PBS, k.6mm, met. body, shop 12 ball, up to 80 M/M pnevmat straikboll airsoft пневматический PM Makarov (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">Steel balls for Slingshot (Galvanized) (Color: 10 мм / 50 шт; Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cylinder CO2 "Crosman", 12g, 10 pieces (Ships From: Russian Federation) </t>
+          <t xml:space="preserve">The signal of the Hunter "Thunder" (15 PCs/light-noise). (Ships From: Russian Federation) </t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ремонтный комплект Borner ПМ-49, Umarex PM (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gas Spring for Hatsan 33/35/striker alpha (140 ATM). (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gun pneumatic stalker scm9m (analog Beretta M9), k.6mm, 12g CO2, Meth. body, shop 20 ball, to 105mm (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nimar fly (luminous green | fiber diameter 3,0mm | thread 3,0mm) (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gas Spring for Crosman NP rifle (140 ATM) (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rifle Hatsan Alpha pneumatic break-barrel 4.5mm 205 m/s (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Balls for Slingshot "shot" (Cal. 10mm | 50 PCs | steel)  </t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Stalker balls for Slingshot (Galvanized) (Color: 6mm/250 PCs; Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chevron "fishing troops" (black) (Color: Green; Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Balls for airsoft plastic stalker 6,0mm/0,12G/250 PCs (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">"Borner" balls for 4,5mm pneumatic, 500 pieces (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knife training mutual sharp solid (copy of the battle knife Applegate-Fairburn Kombat II) material-hard plastic (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shotgun cleaning kit 4,5mm caliber (for pneumatic weapons, metal. shompaul + 3 Ersha) (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chevron "Bob Marley squad" (olive, black edge) (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gun pneumatic stalker s92pl (analog "Beretta 92") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Shock; Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuff for Hatsan 55-60-70-80-90-100-105, striker 1000/EDGE, Alpha, mod 25 (Vado) closed (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Hot pepper; Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kokarda VMF (RF) (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gas Spring for Hatsan striker 1000/edge rifle (150 atm) (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pepper spray spray bottle to protect against aggressive animals spaga black torch cortex Lady Black burning pepper (Scent Type: Fighter аэрозольно inkjet; Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Matches hunting Image (20 PCs) (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gas mask (in a bag, USSR) (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gun pneumatic stalker s1911t (analog "Colt 1911") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gun pneumatic stalker s92pl (analog "Beretta 92") K.4, 5mm, plastic, 120 m/s, black, + 250 ball.pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Spring gun stalker SATT (caliber 6mm, metal case, on the spring) pneumatic pistol airsoft strikeball (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pistol Stalker SA99M Spring (similar to the Walther P99), 6mm, met. the case, 8 Ball pnevmat straikboll airsoft (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cuff for rifle Baikal mr-512/mr-60/mr-61/mr-53 (reinforced). (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gun pneumatic stalker s1911t (analog "Colt 1911") K.4, 5mm, plastic, 120 m/s, black, + 250 ball. pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bullets Gamo red fire (Cal. 4,5mm/0,51G/125 PCs) Airgun Pellets .177 (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pistol Stalker SA38 Spring (similar to the Walther P38), 6mm, met. The Body Shop 13 ball  pnevmat straikboll airsoft пневматический (Ships From: Russian Federation) </t>
-        </is>
-      </c>
-      <c r="B62" t="n">
         <v>1</v>
       </c>
     </row>
